--- a/EpiQuant_Typing_Analysis/ECC_Results(50.30.20).xlsx
+++ b/EpiQuant_Typing_Analysis/ECC_Results(50.30.20).xlsx
@@ -580,553 +580,553 @@
     <t>0893.001.001</t>
   </si>
   <si>
-    <t>06_1490,06_1489,06_1500</t>
-  </si>
-  <si>
-    <t>06_1879</t>
-  </si>
-  <si>
-    <t>06_2868</t>
-  </si>
-  <si>
-    <t>06_2878</t>
-  </si>
-  <si>
-    <t>06_5178,08_5602,06_6453,07_4429,07_7313,07_7320,07_1009,07_7314,CI_0609,CI_4835,CI_4864,CI_4909,CI_2499,CE_R_11_0240,CE_R2_11_0374</t>
-  </si>
-  <si>
-    <t>07_1306,06_1872,06_2403,06_5339,07_0673,07_3855,07_4267,08_1704,08_7040,CA99CN070034,06_4734,06_6211,07_2174,CI_0325,CI_1096,CI_0973,CE_M_09_3054,CE_M_10_2096,CE_M_10_2108,CE_M_10_2113</t>
-  </si>
-  <si>
-    <t>08_0081,06_1486,06_1491,06_1493,06_1501,06_5789,06_6558</t>
-  </si>
-  <si>
-    <t>08_0092,06_1880,06_2876,08_0087</t>
-  </si>
-  <si>
-    <t>08_2972</t>
-  </si>
-  <si>
-    <t>08_6163,CI_3856,CI_3943,CI_1845,CI_3812,CI_4990,CI_1660,CI_2230</t>
-  </si>
-  <si>
-    <t>08_6976,06_2867,07_0219,07_4269,08_0099,CE_R2_11_0350,CE2_R_11_1063</t>
-  </si>
-  <si>
-    <t>08_7904</t>
-  </si>
-  <si>
-    <t>CA99CN070014,06_4012</t>
-  </si>
-  <si>
-    <t>CI_2004,CI_2009,CI_2328,CI_3609,06_4079,06_4080,06_5724,CI_3252,CI_5034,CI_2950,CI_3036</t>
-  </si>
-  <si>
-    <t>CI_2705,CI_1799,CI_1636,CI_0532,CI_0697,CI_0765,CI_3986,CI_2510,CI_2605,CI_4079,CI_4102,CI_2536,CI_1653</t>
-  </si>
-  <si>
-    <t>CI_3421,CI_0884,CI_0094,06_1494,06_7581,07_3321,07_4077,08_1680,08_2963_2,08_2969,08_2970,08_2971,06_3245,06_3569,07_0971,07_1493,CI_0405</t>
-  </si>
-  <si>
-    <t>CI_2548,CI_2989,CI_2991,CI_2423</t>
-  </si>
-  <si>
-    <t>CI_3074,06_1505,06_1506,CI_0450,CI_0453,CI_0458,CI_0699,CI_2533,CI_2695,CI_3043</t>
-  </si>
-  <si>
-    <t>CI_4353,07_5040,07_6217,08_7037,CI_0783,CI_0918,CI_4108,CI_5245,CI_5254,CI_5265,CI_5292,CI_5300,CE_M_09_2085,CE_R_10_0273</t>
-  </si>
-  <si>
-    <t>CI_4356,CI_4378,CI_0165,06_4634,06_6550,07_0672,08_2962_2,08_2963,08_2963_1,08_2964,08_2965,08_2965_1,08_6315,CI_1875,CE_M_09_3081</t>
-  </si>
-  <si>
-    <t>CI_4360,CI_4395,CI_4428,06_3567,06_3568,CE_M_10_4091</t>
-  </si>
-  <si>
-    <t>CI_4383,CI_4458,CI_0927,06_2273,06_2871_2,06_2873,06_4731,06_7864,07_1935,07_5321,07_4268,08_1700,CI_0292,CI_0334,CI_5692,CI_5889,CI_5943,CI_5947,CI_1874</t>
-  </si>
-  <si>
-    <t>CI_4411,CI_4424,CI_4447,08_2978,CI_1884</t>
-  </si>
-  <si>
-    <t>CI_0893,CI_0898,06_3129,06_4732,06_4735,06_6768,07_1576,07_1577,07_7332,08_1710,06_3783,06_3849,06_3851,06_3852,06_6554,07_5039,08_1709,08_1711,CI_1415,CI_3889</t>
-  </si>
-  <si>
-    <t>CI_0987,06_1871,06_2875,06_2879,06_3782,06_5177,06_5919,06_6309,06_6561,06_7579,06_7630,06_7833,07_0376,07_0377,07_2175,07_3695,07_5133,07_5425,07_6623,07_7328,08_0016,08_0107,08_0938,08_4604,08_6207,08_7035,08_7903,08_8040,08_8093,07_3238,07_5038,07_6017,07_6066,07_7331,08_1714,08_5603,08_5925,08_6208,08_7039,CI_1964,CI_1969,CI_5328,CI_5357,CI_5429,CE_M_10_4054</t>
-  </si>
-  <si>
-    <t>CI_0136,06_1876,06_5726,07_1304,07_3079,08_0106,CA99CN070013,07_4428,07_5581,07_5583,CI_5906,CE2_R_11_3021</t>
-  </si>
-  <si>
-    <t>CI_0168,06_4250,06_5961,CA99CN070020,CI_0182,CI_3290,CI_3299,CI_0392</t>
-  </si>
-  <si>
-    <t>06_1483,06_1485,06_1487,06_1488</t>
-  </si>
-  <si>
-    <t>06_1484</t>
-  </si>
-  <si>
-    <t>06_1495,08_1841</t>
-  </si>
-  <si>
-    <t>06_1496</t>
-  </si>
-  <si>
-    <t>06_1497</t>
-  </si>
-  <si>
-    <t>06_1498</t>
-  </si>
-  <si>
-    <t>06_1499</t>
-  </si>
-  <si>
-    <t>06_1502</t>
-  </si>
-  <si>
-    <t>06_1503</t>
-  </si>
-  <si>
-    <t>06_1504</t>
-  </si>
-  <si>
-    <t>06_1507</t>
-  </si>
-  <si>
-    <t>06_1873,CI_0677,CI_0685,CE_R_11_0170,CE2_R_11_3009,CE2_R2_11_2018,CE2_R2_11_3081,CE2_R2_11_3085</t>
-  </si>
-  <si>
-    <t>06_1874,06_4013,08_4602,08_5086,08_5177,08_7366,08_8094</t>
-  </si>
-  <si>
-    <t>06_1875</t>
-  </si>
-  <si>
-    <t>06_1877,07_1305</t>
-  </si>
-  <si>
-    <t>06_1878,CI_0637,CE2_R2_11_2022</t>
-  </si>
-  <si>
-    <t>06_2171</t>
-  </si>
-  <si>
-    <t>06_2172</t>
-  </si>
-  <si>
-    <t>06_2272,06_2857,06_5723,07_7325,07_2680,07_7324</t>
-  </si>
-  <si>
-    <t>06_2855,06_4010</t>
-  </si>
-  <si>
-    <t>06_2856,06_4091,06_4092,06_4251,06_7631,07_3461,08_0001,08_0089,08_1726,08_4457,08_4913,08_5490,CI_2439,CI_3643,CI_3879,CI_4071,CI_4806,CI_5198,CI_1117,CI_1109,CE_R_11_0178,CE_R_11_0192,CE2_R2_11_1027,CE2_R2_11_1033</t>
-  </si>
-  <si>
-    <t>06_2858</t>
-  </si>
-  <si>
-    <t>06_2859,06_4095,06_6552,07_7321,07_7322,07_7323,08_0088,CA99CN070038,06_7515,07_1875,CI_2864</t>
-  </si>
-  <si>
-    <t>06_2860,06_6553,07_0220,07_7190,CI_0322,CI_1915,CI_2840,CE_R_11_0114,CE_R_11_0251,CE2_R_11_3131,CE2_R2_11_1009</t>
-  </si>
-  <si>
-    <t>06_2861,06_2877,08_1354,CA99CN070012,CA99CN070021,CA99CN070037</t>
-  </si>
-  <si>
-    <t>06_2862,06_3352,06_4097,06_5957,07_3322,07_7786,08_0094,08_0098,08_1701,08_1713,08_1724,08_6878,CA99CN070019,06_2866,06_4911,07_3647,07_3853,07_4076,08_5176,08_6160,08_6877,08_7016,08_7017,CI_1943,CI_1920,CI_2055,CI_2061,CE_R_11_0100,CE2_R2_11_1006</t>
-  </si>
-  <si>
-    <t>06_2863,08_4471</t>
-  </si>
-  <si>
-    <t>06_2864</t>
-  </si>
-  <si>
-    <t>06_2865</t>
-  </si>
-  <si>
-    <t>06_2869,07_5841</t>
-  </si>
-  <si>
-    <t>06_2870,06_4733</t>
-  </si>
-  <si>
-    <t>06_2871_1,06_2872,06_4009,06_6557,07_3854,08_1725,08_2640,08_5286,CE_R2_11_0134</t>
-  </si>
-  <si>
-    <t>06_2874,06_4912,07_7865,08_1702,08_1721,08_5175,08_6161,CI_5997,CE_M_09_4099,CE_R_11_0238</t>
-  </si>
-  <si>
-    <t>06_3130</t>
-  </si>
-  <si>
-    <t>06_3351</t>
-  </si>
-  <si>
-    <t>06_3383</t>
-  </si>
-  <si>
-    <t>06_3384</t>
-  </si>
-  <si>
-    <t>06_3781</t>
-  </si>
-  <si>
-    <t>06_3850,06_4011,06_7585,08_0083,08_0086,08_1706,08_4806,06_5176,06_6212,CI_1092,CE_R_10_0305,CE_R_10_0306,CE2_R_11_3113</t>
-  </si>
-  <si>
-    <t>06_4008,08_0093</t>
-  </si>
-  <si>
-    <t>06_4078</t>
-  </si>
-  <si>
-    <t>06_4081</t>
-  </si>
-  <si>
-    <t>06_4082,06_4083,06_4084</t>
-  </si>
-  <si>
-    <t>06_4085</t>
-  </si>
-  <si>
-    <t>06_4086</t>
-  </si>
-  <si>
-    <t>06_4087,06_4088,06_4089</t>
-  </si>
-  <si>
-    <t>06_4090</t>
-  </si>
-  <si>
-    <t>06_4093</t>
-  </si>
-  <si>
-    <t>06_4094,08_6879</t>
-  </si>
-  <si>
-    <t>06_4096,08_1729</t>
-  </si>
-  <si>
-    <t>06_4098,06_5179,08_1723</t>
-  </si>
-  <si>
-    <t>06_4100,08_2959</t>
-  </si>
-  <si>
-    <t>06_4158</t>
-  </si>
-  <si>
-    <t>06_4540,08_1727,CA99CN070039,CE_M_10_3062</t>
-  </si>
-  <si>
-    <t>06_4541_2</t>
-  </si>
-  <si>
-    <t>06_4635</t>
-  </si>
-  <si>
-    <t>06_4736</t>
-  </si>
-  <si>
-    <t>06_4910,06_6740,07_0217,07_0920,08_5808</t>
-  </si>
-  <si>
-    <t>06_5264</t>
-  </si>
-  <si>
-    <t>06_5340,07_2681</t>
-  </si>
-  <si>
-    <t>06_5562</t>
-  </si>
-  <si>
-    <t>06_5725</t>
-  </si>
-  <si>
-    <t>06_5791</t>
-  </si>
-  <si>
-    <t>06_6551,08_4694</t>
-  </si>
-  <si>
-    <t>06_6555,06_7739</t>
-  </si>
-  <si>
-    <t>06_6556</t>
-  </si>
-  <si>
-    <t>06_6560,07_7417</t>
-  </si>
-  <si>
-    <t>06_6767</t>
-  </si>
-  <si>
-    <t>06_6988</t>
-  </si>
-  <si>
-    <t>06_7233,07_3924,08_0668,08_1722,08_5287,CA99CN070030,CE_M_10_3107</t>
-  </si>
-  <si>
-    <t>06_7330</t>
-  </si>
-  <si>
-    <t>06_7513</t>
-  </si>
-  <si>
-    <t>06_7514</t>
-  </si>
-  <si>
-    <t>06_7576,06_7583,07_3509</t>
-  </si>
-  <si>
-    <t>06_7865,08_0513,CA99CN070031</t>
-  </si>
-  <si>
-    <t>07_0218,08_0545,CA99CN070015,CA99CN070018,06_7331,06_7656</t>
-  </si>
-  <si>
-    <t>07_1303</t>
-  </si>
-  <si>
-    <t>07_1575</t>
-  </si>
-  <si>
-    <t>07_1771,07_6362</t>
-  </si>
-  <si>
-    <t>07_2022</t>
-  </si>
-  <si>
-    <t>07_2023</t>
-  </si>
-  <si>
-    <t>07_2173,07_0549,07_0675</t>
-  </si>
-  <si>
-    <t>07_2731</t>
-  </si>
-  <si>
-    <t>07_3078</t>
-  </si>
-  <si>
-    <t>07_3324</t>
-  </si>
-  <si>
-    <t>07_5839</t>
-  </si>
-  <si>
-    <t>07_5842</t>
-  </si>
-  <si>
-    <t>07_5905</t>
-  </si>
-  <si>
-    <t>07_6424</t>
-  </si>
-  <si>
-    <t>07_6898</t>
-  </si>
-  <si>
-    <t>07_6899</t>
-  </si>
-  <si>
-    <t>07_6976</t>
-  </si>
-  <si>
-    <t>07_7315</t>
-  </si>
-  <si>
-    <t>07_7316</t>
-  </si>
-  <si>
-    <t>07_7317,07_7318,08_1720</t>
-  </si>
-  <si>
-    <t>07_7319,08_1707,08_4459</t>
-  </si>
-  <si>
-    <t>07_7326,08_0085,08_2979,08_2980,08_2981,08_2982</t>
-  </si>
-  <si>
-    <t>07_7327</t>
-  </si>
-  <si>
-    <t>07_7329</t>
-  </si>
-  <si>
-    <t>07_7330,08_6313</t>
-  </si>
-  <si>
-    <t>08_0084</t>
-  </si>
-  <si>
-    <t>08_0090</t>
-  </si>
-  <si>
-    <t>08_0091</t>
-  </si>
-  <si>
-    <t>08_0095</t>
-  </si>
-  <si>
-    <t>08_0097,07_3508,08_0096,08_0100</t>
-  </si>
-  <si>
-    <t>08_0512,08_0546,08_6023,08_6314</t>
-  </si>
-  <si>
-    <t>08_0667</t>
-  </si>
-  <si>
-    <t>08_1679</t>
-  </si>
-  <si>
-    <t>08_1699</t>
-  </si>
-  <si>
-    <t>08_1703</t>
-  </si>
-  <si>
-    <t>08_1705</t>
-  </si>
-  <si>
-    <t>08_1708</t>
-  </si>
-  <si>
-    <t>08_1712</t>
-  </si>
-  <si>
-    <t>08_1715</t>
-  </si>
-  <si>
-    <t>08_1716</t>
-  </si>
-  <si>
-    <t>08_1717</t>
-  </si>
-  <si>
-    <t>08_1718</t>
-  </si>
-  <si>
-    <t>08_1719</t>
-  </si>
-  <si>
-    <t>08_1728</t>
-  </si>
-  <si>
-    <t>08_2961,08_2962</t>
-  </si>
-  <si>
-    <t>08_2965_2</t>
-  </si>
-  <si>
-    <t>08_2966</t>
-  </si>
-  <si>
-    <t>08_2967,08_2968,07_5041,07_6215,CI_0346</t>
-  </si>
-  <si>
-    <t>08_2973</t>
-  </si>
-  <si>
-    <t>08_2974,08_2975</t>
-  </si>
-  <si>
-    <t>08_4455,CA99CN070023</t>
-  </si>
-  <si>
-    <t>08_4462,08_4463,08_4464,08_4465,08_4467,08_4469,08_4470,08_4473,08_4475,08_4476,08_4477,08_4698,08_4699,08_4700,08_4456,08_4460,08_4461,08_4466,08_4468,08_4472,08_4474,08_4603,08_4696,08_4697</t>
-  </si>
-  <si>
-    <t>08_4478</t>
-  </si>
-  <si>
-    <t>08_4605</t>
-  </si>
-  <si>
-    <t>08_4695</t>
-  </si>
-  <si>
-    <t>08_5178</t>
-  </si>
-  <si>
-    <t>08_5179</t>
-  </si>
-  <si>
-    <t>08_5288</t>
-  </si>
-  <si>
-    <t>08_6022,08_7038</t>
-  </si>
-  <si>
-    <t>08_6024</t>
-  </si>
-  <si>
-    <t>08_6162</t>
-  </si>
-  <si>
-    <t>08_6209</t>
-  </si>
-  <si>
-    <t>08_6316</t>
-  </si>
-  <si>
-    <t>08_6517</t>
-  </si>
-  <si>
-    <t>08_6519</t>
-  </si>
-  <si>
-    <t>08_6876</t>
-  </si>
-  <si>
-    <t>08_6977,08_7834,CA99CN070022,CA99CN070029,06_5790,06_7332,CE_R_11_0270</t>
-  </si>
-  <si>
-    <t>08_7015</t>
-  </si>
-  <si>
-    <t>08_7036</t>
-  </si>
-  <si>
-    <t>08_7900</t>
-  </si>
-  <si>
-    <t>08_7902</t>
-  </si>
-  <si>
-    <t>CA99CN070017</t>
-  </si>
-  <si>
-    <t>CA99CN070024</t>
-  </si>
-  <si>
-    <t>CA99CN070026</t>
-  </si>
-  <si>
-    <t>CA99CN070027</t>
-  </si>
-  <si>
-    <t>CA99CN070028</t>
-  </si>
-  <si>
-    <t>CA99CN070032</t>
-  </si>
-  <si>
-    <t>CA99CN070033</t>
-  </si>
-  <si>
-    <t>CA99CN070036</t>
-  </si>
-  <si>
-    <t>CI_0955</t>
-  </si>
-  <si>
-    <t>CE_R_11_0077,CE2_R_11_3039,CE2_R2_11_3023</t>
+    <t>Isolate_264,Isolate_263,Isolate_262</t>
+  </si>
+  <si>
+    <t>Isolate_400</t>
+  </si>
+  <si>
+    <t>Isolate_561</t>
+  </si>
+  <si>
+    <t>Isolate_611</t>
+  </si>
+  <si>
+    <t>Isolate_497,Isolate_442,Isolate_441,Isolate_443,Isolate_625,Isolate_626,Isolate_20,Isolate_70,Isolate_191,Isolate_64,Isolate_66,Isolate_65,Isolate_206,Isolate_107,Isolate_104</t>
+  </si>
+  <si>
+    <t>Isolate_295,Isolate_299,Isolate_298,Isolate_300,Isolate_294,Isolate_296,Isolate_297,Isolate_554,Isolate_301,Isolate_555,Isolate_7,Isolate_11,Isolate_23,Isolate_116,Isolate_126,Isolate_124,Isolate_134,Isolate_139,Isolate_140,Isolate_141</t>
+  </si>
+  <si>
+    <t>Isolate_596,Isolate_271,Isolate_272,Isolate_273,Isolate_270,Isolate_414,Isolate_415</t>
+  </si>
+  <si>
+    <t>Isolate_593,Isolate_413,Isolate_595,Isolate_594</t>
+  </si>
+  <si>
+    <t>Isolate_279</t>
+  </si>
+  <si>
+    <t>Isolate_398,Isolate_227,Isolate_230,Isolate_200,Isolate_226,Isolate_67,Isolate_198,Isolate_202</t>
+  </si>
+  <si>
+    <t>Isolate_495,Isolate_617,Isolate_435,Isolate_31,Isolate_74,Isolate_103,Isolate_105</t>
+  </si>
+  <si>
+    <t>Isolate_403</t>
+  </si>
+  <si>
+    <t>Isolate_613,Isolate_433</t>
+  </si>
+  <si>
+    <t>Isolate_180,Isolate_181,Isolate_203,Isolate_224,Isolate_249,Isolate_248,Isolate_432,Isolate_222,Isolate_236,Isolate_216,Isolate_219</t>
+  </si>
+  <si>
+    <t>Isolate_213,Isolate_199,Isolate_196,Isolate_190,Isolate_193,Isolate_173,Isolate_231,Isolate_207,Isolate_211,Isolate_233,Isolate_234,Isolate_209,Isolate_197</t>
+  </si>
+  <si>
+    <t>Isolate_223,Isolate_119,Isolate_187,Isolate_278,Isolate_517,Isolate_425,Isolate_423,Isolate_424,Isolate_518,Isolate_527,Isolate_528,Isolate_529,Isolate_1,Isolate_2,Isolate_19,Isolate_21,Isolate_62</t>
+  </si>
+  <si>
+    <t>Isolate_210,Isolate_217,Isolate_218,Isolate_204</t>
+  </si>
+  <si>
+    <t>Isolate_221,Isolate_250,Isolate_251,Isolate_168,Isolate_169,Isolate_170,Isolate_194,Isolate_208,Isolate_212,Isolate_220</t>
+  </si>
+  <si>
+    <t>Isolate_143,Isolate_394,Isolate_392,Isolate_393,Isolate_118,Isolate_123,Isolate_142,Isolate_154,Isolate_155,Isolate_156,Isolate_157,Isolate_158,Isolate_136,Isolate_80</t>
+  </si>
+  <si>
+    <t>Isolate_144,Isolate_146,Isolate_112,Isolate_406,Isolate_508,Isolate_404,Isolate_265,Isolate_533,Isolate_509,Isolate_510,Isolate_532,Isolate_507,Isolate_405,Isolate_129,Isolate_135</t>
+  </si>
+  <si>
+    <t>Isolate_145,Isolate_148,Isolate_151,Isolate_385,Isolate_386,Isolate_186</t>
+  </si>
+  <si>
+    <t>Isolate_147,Isolate_153,Isolate_122,Isolate_419,Isolate_601,Isolate_602,Isolate_420,Isolate_418,Isolate_417,Isolate_421,Isolate_30,Isolate_76,Isolate_188,Isolate_117,Isolate_162,Isolate_163,Isolate_165,Isolate_166,Isolate_128</t>
+  </si>
+  <si>
+    <t>Isolate_149,Isolate_150,Isolate_152,Isolate_516,Isolate_130</t>
+  </si>
+  <si>
+    <t>Isolate_120,Isolate_121,Isolate_490,Isolate_492,Isolate_487,Isolate_491,Isolate_488,Isolate_489,Isolate_653,Isolate_654,Isolate_4,Isolate_3,Isolate_5,Isolate_6,Isolate_131,Isolate_34,Isolate_77,Isolate_78,Isolate_195,Isolate_229</t>
+  </si>
+  <si>
+    <t>Isolate_125,Isolate_360,Isolate_575,Isolate_574,Isolate_359,Isolate_366,Isolate_361,Isolate_350,Isolate_371,Isolate_506,Isolate_362,Isolate_356,Isolate_351,Isolate_352,Isolate_353,Isolate_367,Isolate_372,Isolate_368,Isolate_500,Isolate_576,Isolate_369,Isolate_357,Isolate_358,Isolate_363,Isolate_364,Isolate_355,Isolate_365,Isolate_370,Isolate_354,Isolate_25,Isolate_33,Isolate_38,Isolate_39,Isolate_72,Isolate_79,Isolate_54,Isolate_55,Isolate_57,Isolate_61,Isolate_178,Isolate_179,Isolate_159,Isolate_160,Isolate_161,Isolate_185</t>
+  </si>
+  <si>
+    <t>Isolate_111,Isolate_377,Isolate_378,Isolate_376,Isolate_379,Isolate_380,Isolate_503,Isolate_32,Isolate_36,Isolate_37,Isolate_164,Isolate_84</t>
+  </si>
+  <si>
+    <t>Isolate_113,Isolate_471,Isolate_524,Isolate_642,Isolate_114,Isolate_132,Isolate_133,Isolate_189</t>
+  </si>
+  <si>
+    <t>Isolate_258,Isolate_259,Isolate_260,Isolate_261</t>
+  </si>
+  <si>
+    <t>Isolate_274</t>
+  </si>
+  <si>
+    <t>Isolate_267,Isolate_409</t>
+  </si>
+  <si>
+    <t>Isolate_276</t>
+  </si>
+  <si>
+    <t>Isolate_268</t>
+  </si>
+  <si>
+    <t>Isolate_254</t>
+  </si>
+  <si>
+    <t>Isolate_269</t>
+  </si>
+  <si>
+    <t>Isolate_257</t>
+  </si>
+  <si>
+    <t>Isolate_266</t>
+  </si>
+  <si>
+    <t>Isolate_275</t>
+  </si>
+  <si>
+    <t>Isolate_246</t>
+  </si>
+  <si>
+    <t>Isolate_318,Isolate_171,Isolate_172,Isolate_95,Isolate_83,Isolate_93,Isolate_99,Isolate_100</t>
+  </si>
+  <si>
+    <t>Isolate_313,Isolate_312,Isolate_315,Isolate_316,Isolate_317,Isolate_314,Isolate_311</t>
+  </si>
+  <si>
+    <t>Isolate_287</t>
+  </si>
+  <si>
+    <t>Isolate_331,Isolate_332</t>
+  </si>
+  <si>
+    <t>Isolate_470,Isolate_192,Isolate_94</t>
+  </si>
+  <si>
+    <t>Isolate_422</t>
+  </si>
+  <si>
+    <t>Isolate_339</t>
+  </si>
+  <si>
+    <t>Isolate_319,Isolate_559,Isolate_320,Isolate_560,Isolate_24,Isolate_71</t>
+  </si>
+  <si>
+    <t>Isolate_583,Isolate_391</t>
+  </si>
+  <si>
+    <t>Isolate_647,Isolate_644,Isolate_645,Isolate_479,Isolate_478,Isolate_481,Isolate_477,Isolate_646,Isolate_648,Isolate_480,Isolate_51,Isolate_53,Isolate_205,Isolate_225,Isolate_228,Isolate_232,Isolate_235,Isolate_237,Isolate_176,Isolate_127,Isolate_96,Isolate_97,Isolate_101,Isolate_102</t>
+  </si>
+  <si>
+    <t>Isolate_545</t>
+  </si>
+  <si>
+    <t>Isolate_606,Isolate_609,Isolate_519,Isolate_607,Isolate_610,Isolate_608,Isolate_604,Isolate_605,Isolate_15,Isolate_22,Isolate_215</t>
+  </si>
+  <si>
+    <t>Isolate_652,Isolate_526,Isolate_486,Isolate_485,Isolate_115,Isolate_201,Isolate_214,Isolate_91,Isolate_109,Isolate_108,Isolate_92</t>
+  </si>
+  <si>
+    <t>Isolate_569,Isolate_570,Isolate_345,Isolate_571,Isolate_572,Isolate_573</t>
+  </si>
+  <si>
+    <t>Isolate_631,Isolate_450,Isolate_632,Isolate_252,Isolate_451,Isolate_452,Isolate_633,Isolate_634,Isolate_635,Isolate_636,Isolate_637,Isolate_493,Isolate_630,Isolate_69,Isolate_8,Isolate_27,Isolate_28,Isolate_29,Isolate_52,Isolate_56,Isolate_58,Isolate_59,Isolate_60,Isolate_63,Isolate_177,Isolate_182,Isolate_183,Isolate_90,Isolate_89</t>
+  </si>
+  <si>
+    <t>Isolate_623,Isolate_437</t>
+  </si>
+  <si>
+    <t>Isolate_603</t>
+  </si>
+  <si>
+    <t>Isolate_649</t>
+  </si>
+  <si>
+    <t>Isolate_568,Isolate_342</t>
+  </si>
+  <si>
+    <t>Isolate_577,Isolate_374</t>
+  </si>
+  <si>
+    <t>Isolate_627,Isolate_628,Isolate_449,Isolate_522,Isolate_448,Isolate_629,Isolate_447,Isolate_446,Isolate_86</t>
+  </si>
+  <si>
+    <t>Isolate_581,Isolate_387,Isolate_390,Isolate_580,Isolate_582,Isolate_389,Isolate_388,Isolate_68,Isolate_184,Isolate_106</t>
+  </si>
+  <si>
+    <t>Isolate_428</t>
+  </si>
+  <si>
+    <t>Isolate_426</t>
+  </si>
+  <si>
+    <t>Isolate_410</t>
+  </si>
+  <si>
+    <t>Isolate_416</t>
+  </si>
+  <si>
+    <t>Isolate_291</t>
+  </si>
+  <si>
+    <t>Isolate_468,Isolate_467,Isolate_523,Isolate_640,Isolate_639,Isolate_641,Isolate_469,Isolate_9,Isolate_12,Isolate_175,Isolate_81,Isolate_82,Isolate_98</t>
+  </si>
+  <si>
+    <t>Isolate_286,Isolate_542</t>
+  </si>
+  <si>
+    <t>Isolate_245</t>
+  </si>
+  <si>
+    <t>Isolate_247</t>
+  </si>
+  <si>
+    <t>Isolate_239,Isolate_240,Isolate_241</t>
+  </si>
+  <si>
+    <t>Isolate_253</t>
+  </si>
+  <si>
+    <t>Isolate_238</t>
+  </si>
+  <si>
+    <t>Isolate_242,Isolate_243,Isolate_244</t>
+  </si>
+  <si>
+    <t>Isolate_600</t>
+  </si>
+  <si>
+    <t>Isolate_612</t>
+  </si>
+  <si>
+    <t>Isolate_556,Isolate_498</t>
+  </si>
+  <si>
+    <t>Isolate_588,Isolate_589</t>
+  </si>
+  <si>
+    <t>Isolate_552,Isolate_292,Isolate_551</t>
+  </si>
+  <si>
+    <t>Isolate_599,Isolate_277</t>
+  </si>
+  <si>
+    <t>Isolate_373</t>
+  </si>
+  <si>
+    <t>Isolate_484,Isolate_650,Isolate_651,Isolate_137</t>
+  </si>
+  <si>
+    <t>Isolate_323</t>
+  </si>
+  <si>
+    <t>Isolate_401</t>
+  </si>
+  <si>
+    <t>Isolate_384</t>
+  </si>
+  <si>
+    <t>Isolate_472,Isolate_474,Isolate_476,Isolate_473,Isolate_475</t>
+  </si>
+  <si>
+    <t>Isolate_440</t>
+  </si>
+  <si>
+    <t>Isolate_383,Isolate_382</t>
+  </si>
+  <si>
+    <t>Isolate_349</t>
+  </si>
+  <si>
+    <t>Isolate_330</t>
+  </si>
+  <si>
+    <t>Isolate_338</t>
+  </si>
+  <si>
+    <t>Isolate_515,Isolate_407</t>
+  </si>
+  <si>
+    <t>Isolate_504,Isolate_302</t>
+  </si>
+  <si>
+    <t>Isolate_525</t>
+  </si>
+  <si>
+    <t>Isolate_346,Isolate_347</t>
+  </si>
+  <si>
+    <t>Isolate_343</t>
+  </si>
+  <si>
+    <t>Isolate_483</t>
+  </si>
+  <si>
+    <t>Isolate_328,Isolate_325,Isolate_327,Isolate_563,Isolate_326,Isolate_562,Isolate_138</t>
+  </si>
+  <si>
+    <t>Isolate_431</t>
+  </si>
+  <si>
+    <t>Isolate_305</t>
+  </si>
+  <si>
+    <t>Isolate_408</t>
+  </si>
+  <si>
+    <t>Isolate_520,Isolate_521,Isolate_439</t>
+  </si>
+  <si>
+    <t>Isolate_411,Isolate_412,Isolate_592</t>
+  </si>
+  <si>
+    <t>Isolate_303,Isolate_304,Isolate_557,Isolate_558,Isolate_14,Isolate_16</t>
+  </si>
+  <si>
+    <t>Isolate_290</t>
+  </si>
+  <si>
+    <t>Isolate_336</t>
+  </si>
+  <si>
+    <t>Isolate_288,Isolate_499</t>
+  </si>
+  <si>
+    <t>Isolate_321</t>
+  </si>
+  <si>
+    <t>Isolate_324</t>
+  </si>
+  <si>
+    <t>Isolate_434,Isolate_17,Isolate_18</t>
+  </si>
+  <si>
+    <t>Isolate_341</t>
+  </si>
+  <si>
+    <t>Isolate_282</t>
+  </si>
+  <si>
+    <t>Isolate_444</t>
+  </si>
+  <si>
+    <t>Isolate_335</t>
+  </si>
+  <si>
+    <t>Isolate_427</t>
+  </si>
+  <si>
+    <t>Isolate_344</t>
+  </si>
+  <si>
+    <t>Isolate_496</t>
+  </si>
+  <si>
+    <t>Isolate_494</t>
+  </si>
+  <si>
+    <t>Isolate_289</t>
+  </si>
+  <si>
+    <t>Isolate_310</t>
+  </si>
+  <si>
+    <t>Isolate_624</t>
+  </si>
+  <si>
+    <t>Isolate_546</t>
+  </si>
+  <si>
+    <t>Isolate_538,Isolate_539,Isolate_540</t>
+  </si>
+  <si>
+    <t>Isolate_620,Isolate_621,Isolate_436</t>
+  </si>
+  <si>
+    <t>Isolate_586,Isolate_585,Isolate_514,Isolate_511,Isolate_512,Isolate_513</t>
+  </si>
+  <si>
+    <t>Isolate_544</t>
+  </si>
+  <si>
+    <t>Isolate_541</t>
+  </si>
+  <si>
+    <t>Isolate_564,Isolate_333</t>
+  </si>
+  <si>
+    <t>Isolate_597</t>
+  </si>
+  <si>
+    <t>Isolate_622</t>
+  </si>
+  <si>
+    <t>Isolate_616</t>
+  </si>
+  <si>
+    <t>Isolate_537</t>
+  </si>
+  <si>
+    <t>Isolate_619,Isolate_26,Isolate_73,Isolate_75</t>
+  </si>
+  <si>
+    <t>Isolate_306,Isolate_308,Isolate_307,Isolate_309</t>
+  </si>
+  <si>
+    <t>Isolate_322</t>
+  </si>
+  <si>
+    <t>Isolate_348</t>
+  </si>
+  <si>
+    <t>Isolate_643</t>
+  </si>
+  <si>
+    <t>Isolate_567</t>
+  </si>
+  <si>
+    <t>Isolate_548</t>
+  </si>
+  <si>
+    <t>Isolate_590</t>
+  </si>
+  <si>
+    <t>Isolate_638</t>
+  </si>
+  <si>
+    <t>Isolate_536</t>
+  </si>
+  <si>
+    <t>Isolate_566</t>
+  </si>
+  <si>
+    <t>Isolate_549</t>
+  </si>
+  <si>
+    <t>Isolate_543</t>
+  </si>
+  <si>
+    <t>Isolate_587</t>
+  </si>
+  <si>
+    <t>Isolate_615</t>
+  </si>
+  <si>
+    <t>Isolate_255,Isolate_256</t>
+  </si>
+  <si>
+    <t>Isolate_505</t>
+  </si>
+  <si>
+    <t>Isolate_280</t>
+  </si>
+  <si>
+    <t>Isolate_530,Isolate_531,Isolate_35,Isolate_40,Isolate_167</t>
+  </si>
+  <si>
+    <t>Isolate_281</t>
+  </si>
+  <si>
+    <t>Isolate_534,Isolate_535</t>
+  </si>
+  <si>
+    <t>Isolate_334,Isolate_565</t>
+  </si>
+  <si>
+    <t>Isolate_455,Isolate_456,Isolate_453,Isolate_457,Isolate_458,Isolate_459,Isolate_460,Isolate_461,Isolate_462,Isolate_463,Isolate_464,Isolate_465,Isolate_454,Isolate_466,Isolate_41,Isolate_42,Isolate_43,Isolate_44,Isolate_45,Isolate_46,Isolate_47,Isolate_48,Isolate_49,Isolate_50</t>
+  </si>
+  <si>
+    <t>Isolate_283</t>
+  </si>
+  <si>
+    <t>Isolate_430</t>
+  </si>
+  <si>
+    <t>Isolate_445</t>
+  </si>
+  <si>
+    <t>Isolate_482</t>
+  </si>
+  <si>
+    <t>Isolate_329</t>
+  </si>
+  <si>
+    <t>Isolate_402</t>
+  </si>
+  <si>
+    <t>Isolate_285,Isolate_284</t>
+  </si>
+  <si>
+    <t>Isolate_337</t>
+  </si>
+  <si>
+    <t>Isolate_396</t>
+  </si>
+  <si>
+    <t>Isolate_293</t>
+  </si>
+  <si>
+    <t>Isolate_399</t>
+  </si>
+  <si>
+    <t>Isolate_381</t>
+  </si>
+  <si>
+    <t>Isolate_397</t>
+  </si>
+  <si>
+    <t>Isolate_501</t>
+  </si>
+  <si>
+    <t>Isolate_502,Isolate_375,Isolate_578,Isolate_579,Isolate_10,Isolate_13,Isolate_110</t>
+  </si>
+  <si>
+    <t>Isolate_429</t>
+  </si>
+  <si>
+    <t>Isolate_395</t>
+  </si>
+  <si>
+    <t>Isolate_340</t>
+  </si>
+  <si>
+    <t>Isolate_438</t>
+  </si>
+  <si>
+    <t>Isolate_598</t>
+  </si>
+  <si>
+    <t>Isolate_553</t>
+  </si>
+  <si>
+    <t>Isolate_614</t>
+  </si>
+  <si>
+    <t>Isolate_547</t>
+  </si>
+  <si>
+    <t>Isolate_584</t>
+  </si>
+  <si>
+    <t>Isolate_618</t>
+  </si>
+  <si>
+    <t>Isolate_591</t>
+  </si>
+  <si>
+    <t>Isolate_550</t>
+  </si>
+  <si>
+    <t>Isolate_174</t>
+  </si>
+  <si>
+    <t>Isolate_88,Isolate_85,Isolate_87</t>
   </si>
   <si>
     <t>995</t>
@@ -1654,352 +1654,352 @@
     <t/>
   </si>
   <si>
-    <t>CI_1799</t>
-  </si>
-  <si>
-    <t>CI_3074,06_1505,06_1506,CI_0699,CI_3043</t>
-  </si>
-  <si>
-    <t>CI_4353,CI_0136,06_4158,07_5040,07_6217,08_7036,08_7037,CA99CN070029,CI_0783,CI_0918,CI_4108,CI_5245,CI_5254,CI_5265,CI_5292,CI_5300,CE_M_09_2085,CE_R_10_0273,CE2_R_11_3021</t>
-  </si>
-  <si>
-    <t>CI_4356,CI_4378,CI_4411,CI_4424,CI_4447,CI_0165,06_4634,07_0672,08_2963,08_2963_1,08_2963_2,08_2965,08_2965_1,08_2965_2,08_2974,08_2975,08_2978,08_2979,08_2980,08_2981,08_2982,08_6517,CI_1875,CI_1884,CE_M_09_3081</t>
-  </si>
-  <si>
-    <t>CI_4360,CI_4395,CI_4428</t>
-  </si>
-  <si>
-    <t>CI_4383,06_2171,07_5321,07_6424,07_4268,CI_5692,CI_5889,CI_1874</t>
-  </si>
-  <si>
-    <t>CI_4458,CI_0927,06_2273,06_7864,07_1935,06_4734,08_1700,CI_0292,CI_0334,CI_5943,CI_5947</t>
-  </si>
-  <si>
-    <t>CI_1636,CI_3252</t>
-  </si>
-  <si>
-    <t>CI_0884,CI_0094,06_1494,06_3351,06_7581,07_3321,07_3324,08_1680,08_2964,08_2969,08_2970,08_2971,06_3245,06_3569,07_0971,07_1493,CI_0405</t>
-  </si>
-  <si>
-    <t>CI_0893,CI_0898,06_3129,06_4732,06_4736,06_6768,07_1576,07_1577,07_7332,08_1710,06_3849,06_3851,06_3852,06_6554,08_1711,CI_1415,CI_3889</t>
-  </si>
-  <si>
-    <t>CI_0987,06_1876,06_2864,06_2870,06_4731,06_5340,06_5726,07_1304,07_3079,07_6623,08_0106,08_6876,08_6977,CA99CN070013,CA99CN070022,06_5790,06_7332,07_3238,07_5581,07_5583,08_7039,CI_5328,CI_5357,CI_5429,CE_R_11_0270</t>
-  </si>
-  <si>
-    <t>CI_0168,06_4250,06_5961,06_6556,08_1699,CA99CN070020,CI_0182,CI_3290,CI_3299,CI_0392</t>
-  </si>
-  <si>
-    <t>06_1483</t>
-  </si>
-  <si>
-    <t>06_1484,06_1491,06_1499,06_1501</t>
-  </si>
-  <si>
-    <t>06_1485</t>
-  </si>
-  <si>
-    <t>06_1486,06_1493</t>
-  </si>
-  <si>
-    <t>06_1487</t>
-  </si>
-  <si>
-    <t>06_1488</t>
-  </si>
-  <si>
-    <t>06_1489</t>
-  </si>
-  <si>
-    <t>06_1495</t>
-  </si>
-  <si>
-    <t>06_1500</t>
-  </si>
-  <si>
-    <t>06_1507,06_4078</t>
-  </si>
-  <si>
-    <t>06_1871,06_2875,06_2879,06_3782,06_5919,06_6309,06_6561,06_7579,06_7630,06_7833,07_0376,07_0377,07_2175,07_3695,07_5133,07_5425,07_7328,08_0016,08_0107,08_4604,08_6207,08_7035,08_7834,08_7903,08_8040,08_8093,07_5038,07_5041,07_6017,07_6066,07_7331,08_1714,08_5603,08_5925,08_6208,CI_1964,CI_1969,CI_5906,CE_M_10_4054</t>
-  </si>
-  <si>
-    <t>06_1872,06_2403,06_4733,06_5339,07_0673,07_3855,07_4267,08_1704,08_7040,CA99CN070034,07_2174,CI_0325,CI_1096,CI_0973,CE_M_09_3054,CE_M_10_2096,CE_M_10_2113</t>
-  </si>
-  <si>
-    <t>06_1873,CE_R_11_0170,CE2_R_11_3009,CE2_R2_11_2018,CE2_R2_11_3081,CE2_R2_11_3085</t>
-  </si>
-  <si>
-    <t>06_1874,06_4013,06_7514,08_0512,08_0546,08_4602,08_5086,08_5177,08_6023,08_8094,CI_0677,CI_0685</t>
-  </si>
-  <si>
-    <t>06_1878,06_2856,06_2860,06_2862,06_2865,06_2871_1,06_2871_2,06_2872,06_3352,06_3850,06_4009,06_4011,06_4091,06_4092,06_4097,06_4540,06_5957,06_6553,06_6557,06_7585,06_7631,07_0220,07_3322,07_3854,07_6898,07_7190,07_7315,07_7319,07_7786,08_0001,08_0086,08_0089,08_0094,08_0097,08_0098,08_1701,08_1707,08_1712,08_1713,08_1724,08_1725,08_1726,08_2640,08_4457,08_4459,08_4462,08_4463,08_4464,08_4465,08_4467,08_4469,08_4470,08_4471,08_4473,08_4475,08_4476,08_4477,08_4698,08_4699,08_4700,08_4806,08_5178,08_5286,08_6878,CA99CN070019,CA99CN070039,06_2866,06_4911,06_6212,07_3508,07_3647,07_3853,07_4076,08_0096,08_0100,08_4456,08_4460,08_4461,08_4466,08_4468,08_4472,08_4474,08_4603,08_4696,08_4697,08_4913,08_5176,08_5490,08_6877,08_7016,08_7017,CI_0322,CI_1915,CI_2840,CI_2439,CI_3643,CI_3879,CI_4071,CI_4806,CI_5198,CI_1092,CI_1117,CI_1943,CI_0637,CI_1109,CI_1920,CI_2055,CI_2061,CE_M_10_3062,CE_R_11_0077,CE_R_11_0100,CE_R_11_0114,CE_R_11_0178,CE_R_11_0192,CE_R_11_0251,CE_R2_11_0134,CE2_R_11_3039,CE2_R_11_3113,CE2_R_11_3131,CE2_R2_11_1006,CE2_R2_11_1009,CE2_R2_11_1027,CE2_R2_11_1033,CE2_R2_11_2022,CE2_R2_11_3023</t>
-  </si>
-  <si>
-    <t>06_1880</t>
-  </si>
-  <si>
-    <t>06_2272,07_0218,CA99CN070015,06_7656</t>
-  </si>
-  <si>
-    <t>06_2857,07_7325,07_7324</t>
-  </si>
-  <si>
-    <t>06_2858,07_7329,08_0093,08_1718,08_1727</t>
-  </si>
-  <si>
-    <t>06_2859,06_4095,06_6552,06_7576,06_7583,07_7321,07_7322,07_7323,08_0088,CA99CN070038,06_7515,07_1875,CI_2864</t>
-  </si>
-  <si>
-    <t>06_2861,06_2877,06_6560,07_7417,08_1354,08_1679,CA99CN070012,CA99CN070021,CA99CN070037</t>
-  </si>
-  <si>
-    <t>06_2863</t>
-  </si>
-  <si>
-    <t>06_2867,07_0219,07_4429,CA99CN070032,07_4269,08_0099,CE_R2_11_0350,CE2_R_11_1063</t>
-  </si>
-  <si>
-    <t>06_2873</t>
-  </si>
-  <si>
-    <t>06_2874,06_3567,06_3568,06_4912,07_7865,08_1702,08_1721,08_5175,08_6161,CI_5997,CE_M_09_4099,CE_M_10_4091,CE_R_11_0238</t>
-  </si>
-  <si>
-    <t>06_2876</t>
-  </si>
-  <si>
-    <t>06_3383,06_4635</t>
-  </si>
-  <si>
-    <t>06_4008</t>
-  </si>
-  <si>
-    <t>06_4012</t>
-  </si>
-  <si>
-    <t>06_4079,06_4080</t>
-  </si>
-  <si>
-    <t>06_4081,06_7330</t>
-  </si>
-  <si>
-    <t>06_4082</t>
-  </si>
-  <si>
-    <t>06_4083,06_4087</t>
-  </si>
-  <si>
-    <t>06_4084,06_4086</t>
-  </si>
-  <si>
-    <t>06_4085,06_4089</t>
-  </si>
-  <si>
-    <t>06_4088</t>
-  </si>
-  <si>
-    <t>06_4096,06_4100</t>
-  </si>
-  <si>
-    <t>06_4098,07_1771,08_0095,08_1723,08_4478,08_6209,CA99CN070024,08_1709</t>
-  </si>
-  <si>
-    <t>06_4251</t>
-  </si>
-  <si>
-    <t>06_4735</t>
-  </si>
-  <si>
-    <t>06_5177</t>
-  </si>
-  <si>
-    <t>06_5179</t>
-  </si>
-  <si>
-    <t>06_5723,07_2022,07_2680</t>
-  </si>
-  <si>
-    <t>06_5724</t>
-  </si>
-  <si>
-    <t>06_5789</t>
-  </si>
-  <si>
-    <t>06_6453,07_7313,07_7320,07_1009,07_7314,CI_0609,CI_4835,CI_4864,CI_4909,CI_2499,CE_R_11_0240,CE_R2_11_0374</t>
-  </si>
-  <si>
-    <t>06_6550</t>
-  </si>
-  <si>
-    <t>06_6551</t>
-  </si>
-  <si>
-    <t>06_6555</t>
-  </si>
-  <si>
-    <t>06_6558</t>
-  </si>
-  <si>
-    <t>06_7233,07_2023,07_3924,08_0668,08_1722,08_5287,CA99CN070030,CE_M_10_3107</t>
-  </si>
-  <si>
-    <t>06_7739</t>
-  </si>
-  <si>
-    <t>06_7865,08_0513</t>
-  </si>
-  <si>
-    <t>07_1575,07_5839,08_1716,08_4455,CA99CN070023</t>
-  </si>
-  <si>
-    <t>07_2681</t>
-  </si>
-  <si>
-    <t>07_3078,08_1715</t>
-  </si>
-  <si>
-    <t>07_3461</t>
-  </si>
-  <si>
-    <t>07_3509</t>
-  </si>
-  <si>
-    <t>07_4077</t>
-  </si>
-  <si>
-    <t>07_6362</t>
-  </si>
-  <si>
-    <t>07_7316,07_7317,07_7318,08_1720</t>
-  </si>
-  <si>
-    <t>07_7326,CA99CN070028</t>
-  </si>
-  <si>
-    <t>07_7330,08_1729,08_6313</t>
-  </si>
-  <si>
-    <t>08_0083,08_7902,CE_R_10_0305,CE_R_10_0306</t>
-  </si>
-  <si>
-    <t>08_0085</t>
-  </si>
-  <si>
-    <t>08_0087</t>
-  </si>
-  <si>
-    <t>08_0090,08_0091</t>
-  </si>
-  <si>
-    <t>08_0545,CA99CN070018</t>
-  </si>
-  <si>
-    <t>08_0938</t>
-  </si>
-  <si>
-    <t>08_1706</t>
-  </si>
-  <si>
-    <t>08_1708,08_1719</t>
-  </si>
-  <si>
-    <t>08_1841</t>
-  </si>
-  <si>
-    <t>08_2959,08_2973</t>
-  </si>
-  <si>
-    <t>08_2961</t>
-  </si>
-  <si>
-    <t>08_2962,08_2962_2</t>
-  </si>
-  <si>
-    <t>08_2967,08_2968,07_6215,CI_0346</t>
-  </si>
-  <si>
-    <t>08_4694</t>
-  </si>
-  <si>
-    <t>08_6022</t>
-  </si>
-  <si>
-    <t>08_6314</t>
-  </si>
-  <si>
-    <t>08_6315</t>
-  </si>
-  <si>
-    <t>08_7038</t>
-  </si>
-  <si>
-    <t>08_7366</t>
-  </si>
-  <si>
-    <t>CA99CN070031</t>
-  </si>
-  <si>
-    <t>06_3783</t>
-  </si>
-  <si>
-    <t>06_5176</t>
-  </si>
-  <si>
-    <t>06_6211</t>
-  </si>
-  <si>
-    <t>06_7331</t>
-  </si>
-  <si>
-    <t>07_4428</t>
-  </si>
-  <si>
-    <t>07_5039</t>
-  </si>
-  <si>
-    <t>08_6160</t>
-  </si>
-  <si>
-    <t>CI_0450,CI_0453,CI_0458</t>
-  </si>
-  <si>
-    <t>CI_0532,CI_2605,CI_2536,CI_3036</t>
-  </si>
-  <si>
-    <t>CI_0697,CI_4079</t>
-  </si>
-  <si>
-    <t>CI_0765</t>
-  </si>
-  <si>
-    <t>CI_3943,CI_1845,CI_3812,CI_2230</t>
-  </si>
-  <si>
-    <t>CI_3986</t>
-  </si>
-  <si>
-    <t>CI_2510</t>
-  </si>
-  <si>
-    <t>CI_4990</t>
-  </si>
-  <si>
-    <t>CI_5034</t>
-  </si>
-  <si>
-    <t>CI_4102,CI_1653</t>
-  </si>
-  <si>
-    <t>CI_2533,CI_2695</t>
-  </si>
-  <si>
-    <t>CI_2950</t>
-  </si>
-  <si>
-    <t>CI_1660</t>
-  </si>
-  <si>
-    <t>CE_M_10_2108</t>
+    <t>Isolate_199</t>
+  </si>
+  <si>
+    <t>Isolate_221,Isolate_250,Isolate_251,Isolate_194,Isolate_220</t>
+  </si>
+  <si>
+    <t>Isolate_143,Isolate_111,Isolate_373,Isolate_394,Isolate_392,Isolate_395,Isolate_393,Isolate_579,Isolate_118,Isolate_123,Isolate_142,Isolate_154,Isolate_155,Isolate_156,Isolate_157,Isolate_158,Isolate_136,Isolate_80,Isolate_84</t>
+  </si>
+  <si>
+    <t>Isolate_144,Isolate_146,Isolate_149,Isolate_150,Isolate_152,Isolate_112,Isolate_406,Isolate_404,Isolate_533,Isolate_509,Isolate_518,Isolate_532,Isolate_507,Isolate_505,Isolate_534,Isolate_535,Isolate_516,Isolate_514,Isolate_511,Isolate_512,Isolate_513,Isolate_381,Isolate_129,Isolate_130,Isolate_135</t>
+  </si>
+  <si>
+    <t>Isolate_145,Isolate_148,Isolate_151</t>
+  </si>
+  <si>
+    <t>Isolate_147,Isolate_422,Isolate_421,Isolate_496,Isolate_30,Isolate_162,Isolate_163,Isolate_128</t>
+  </si>
+  <si>
+    <t>Isolate_153,Isolate_122,Isolate_419,Isolate_418,Isolate_417,Isolate_7,Isolate_76,Isolate_188,Isolate_117,Isolate_165,Isolate_166</t>
+  </si>
+  <si>
+    <t>Isolate_196,Isolate_222</t>
+  </si>
+  <si>
+    <t>Isolate_119,Isolate_187,Isolate_278,Isolate_426,Isolate_517,Isolate_425,Isolate_444,Isolate_424,Isolate_510,Isolate_527,Isolate_528,Isolate_529,Isolate_1,Isolate_2,Isolate_19,Isolate_21,Isolate_62</t>
+  </si>
+  <si>
+    <t>Isolate_120,Isolate_121,Isolate_490,Isolate_492,Isolate_384,Isolate_491,Isolate_488,Isolate_489,Isolate_653,Isolate_654,Isolate_3,Isolate_5,Isolate_6,Isolate_131,Isolate_78,Isolate_195,Isolate_229</t>
+  </si>
+  <si>
+    <t>Isolate_125,Isolate_377,Isolate_603,Isolate_577,Isolate_420,Isolate_383,Isolate_378,Isolate_376,Isolate_379,Isolate_500,Isolate_380,Isolate_501,Isolate_502,Isolate_503,Isolate_578,Isolate_10,Isolate_13,Isolate_25,Isolate_36,Isolate_37,Isolate_61,Isolate_159,Isolate_160,Isolate_161,Isolate_110</t>
+  </si>
+  <si>
+    <t>Isolate_113,Isolate_471,Isolate_524,Isolate_525,Isolate_643,Isolate_642,Isolate_114,Isolate_132,Isolate_133,Isolate_189</t>
+  </si>
+  <si>
+    <t>Isolate_258</t>
+  </si>
+  <si>
+    <t>Isolate_274,Isolate_272,Isolate_269,Isolate_270</t>
+  </si>
+  <si>
+    <t>Isolate_259</t>
+  </si>
+  <si>
+    <t>Isolate_271,Isolate_273</t>
+  </si>
+  <si>
+    <t>Isolate_260</t>
+  </si>
+  <si>
+    <t>Isolate_261</t>
+  </si>
+  <si>
+    <t>Isolate_263</t>
+  </si>
+  <si>
+    <t>Isolate_267</t>
+  </si>
+  <si>
+    <t>Isolate_262</t>
+  </si>
+  <si>
+    <t>Isolate_246,Isolate_245</t>
+  </si>
+  <si>
+    <t>Isolate_360,Isolate_575,Isolate_574,Isolate_359,Isolate_361,Isolate_350,Isolate_371,Isolate_506,Isolate_362,Isolate_356,Isolate_351,Isolate_352,Isolate_353,Isolate_367,Isolate_372,Isolate_368,Isolate_576,Isolate_369,Isolate_357,Isolate_363,Isolate_364,Isolate_355,Isolate_375,Isolate_365,Isolate_370,Isolate_354,Isolate_33,Isolate_35,Isolate_38,Isolate_39,Isolate_72,Isolate_79,Isolate_54,Isolate_55,Isolate_57,Isolate_178,Isolate_179,Isolate_164,Isolate_185</t>
+  </si>
+  <si>
+    <t>Isolate_299,Isolate_298,Isolate_374,Isolate_300,Isolate_294,Isolate_296,Isolate_297,Isolate_554,Isolate_301,Isolate_555,Isolate_23,Isolate_116,Isolate_126,Isolate_124,Isolate_134,Isolate_139,Isolate_141</t>
+  </si>
+  <si>
+    <t>Isolate_318,Isolate_95,Isolate_83,Isolate_93,Isolate_99,Isolate_100</t>
+  </si>
+  <si>
+    <t>Isolate_313,Isolate_312,Isolate_408,Isolate_306,Isolate_308,Isolate_315,Isolate_316,Isolate_317,Isolate_307,Isolate_311,Isolate_171,Isolate_172</t>
+  </si>
+  <si>
+    <t>Isolate_470,Isolate_647,Isolate_652,Isolate_631,Isolate_649,Isolate_627,Isolate_601,Isolate_628,Isolate_450,Isolate_468,Isolate_449,Isolate_467,Isolate_644,Isolate_645,Isolate_632,Isolate_484,Isolate_252,Isolate_526,Isolate_522,Isolate_523,Isolate_478,Isolate_486,Isolate_451,Isolate_448,Isolate_494,Isolate_485,Isolate_624,Isolate_620,Isolate_452,Isolate_477,Isolate_639,Isolate_646,Isolate_633,Isolate_619,Isolate_634,Isolate_635,Isolate_621,Isolate_638,Isolate_636,Isolate_637,Isolate_629,Isolate_648,Isolate_447,Isolate_480,Isolate_436,Isolate_455,Isolate_456,Isolate_453,Isolate_457,Isolate_458,Isolate_459,Isolate_460,Isolate_437,Isolate_461,Isolate_462,Isolate_463,Isolate_464,Isolate_465,Isolate_454,Isolate_466,Isolate_469,Isolate_482,Isolate_446,Isolate_493,Isolate_630,Isolate_651,Isolate_69,Isolate_8,Isolate_12,Isolate_26,Isolate_27,Isolate_28,Isolate_29,Isolate_73,Isolate_75,Isolate_41,Isolate_42,Isolate_43,Isolate_44,Isolate_45,Isolate_46,Isolate_47,Isolate_48,Isolate_49,Isolate_50,Isolate_51,Isolate_52,Isolate_53,Isolate_58,Isolate_59,Isolate_60,Isolate_115,Isolate_201,Isolate_214,Isolate_205,Isolate_225,Isolate_228,Isolate_232,Isolate_235,Isolate_237,Isolate_175,Isolate_176,Isolate_63,Isolate_192,Isolate_127,Isolate_177,Isolate_182,Isolate_183,Isolate_137,Isolate_88,Isolate_90,Isolate_91,Isolate_96,Isolate_97,Isolate_109,Isolate_86,Isolate_85,Isolate_98,Isolate_108,Isolate_89,Isolate_92,Isolate_101,Isolate_102,Isolate_94,Isolate_87</t>
+  </si>
+  <si>
+    <t>Isolate_413</t>
+  </si>
+  <si>
+    <t>Isolate_319,Isolate_303,Isolate_557,Isolate_16</t>
+  </si>
+  <si>
+    <t>Isolate_559,Isolate_560,Isolate_71</t>
+  </si>
+  <si>
+    <t>Isolate_545,Isolate_541,Isolate_542,Isolate_543,Isolate_650</t>
+  </si>
+  <si>
+    <t>Isolate_606,Isolate_609,Isolate_519,Isolate_520,Isolate_521,Isolate_607,Isolate_610,Isolate_608,Isolate_604,Isolate_605,Isolate_15,Isolate_22,Isolate_215</t>
+  </si>
+  <si>
+    <t>Isolate_569,Isolate_570,Isolate_346,Isolate_347,Isolate_345,Isolate_348,Isolate_571,Isolate_572,Isolate_573</t>
+  </si>
+  <si>
+    <t>Isolate_623</t>
+  </si>
+  <si>
+    <t>Isolate_617,Isolate_435,Isolate_443,Isolate_618,Isolate_31,Isolate_74,Isolate_103,Isolate_105</t>
+  </si>
+  <si>
+    <t>Isolate_602</t>
+  </si>
+  <si>
+    <t>Isolate_581,Isolate_385,Isolate_386,Isolate_387,Isolate_390,Isolate_580,Isolate_582,Isolate_389,Isolate_388,Isolate_68,Isolate_184,Isolate_186,Isolate_106</t>
+  </si>
+  <si>
+    <t>Isolate_595</t>
+  </si>
+  <si>
+    <t>Isolate_410,Isolate_401</t>
+  </si>
+  <si>
+    <t>Isolate_286</t>
+  </si>
+  <si>
+    <t>Isolate_433</t>
+  </si>
+  <si>
+    <t>Isolate_249,Isolate_248</t>
+  </si>
+  <si>
+    <t>Isolate_247,Isolate_431</t>
+  </si>
+  <si>
+    <t>Isolate_239</t>
+  </si>
+  <si>
+    <t>Isolate_240,Isolate_242</t>
+  </si>
+  <si>
+    <t>Isolate_241,Isolate_238</t>
+  </si>
+  <si>
+    <t>Isolate_253,Isolate_244</t>
+  </si>
+  <si>
+    <t>Isolate_243</t>
+  </si>
+  <si>
+    <t>Isolate_588,Isolate_599</t>
+  </si>
+  <si>
+    <t>Isolate_552,Isolate_288,Isolate_537,Isolate_551,Isolate_283,Isolate_293,Isolate_553,Isolate_77</t>
+  </si>
+  <si>
+    <t>Isolate_479</t>
+  </si>
+  <si>
+    <t>Isolate_487</t>
+  </si>
+  <si>
+    <t>Isolate_366</t>
+  </si>
+  <si>
+    <t>Isolate_292</t>
+  </si>
+  <si>
+    <t>Isolate_320,Isolate_321,Isolate_24</t>
+  </si>
+  <si>
+    <t>Isolate_432</t>
+  </si>
+  <si>
+    <t>Isolate_414</t>
+  </si>
+  <si>
+    <t>Isolate_441,Isolate_625,Isolate_626,Isolate_20,Isolate_70,Isolate_191,Isolate_64,Isolate_66,Isolate_65,Isolate_206,Isolate_107,Isolate_104</t>
+  </si>
+  <si>
+    <t>Isolate_508</t>
+  </si>
+  <si>
+    <t>Isolate_515</t>
+  </si>
+  <si>
+    <t>Isolate_504</t>
+  </si>
+  <si>
+    <t>Isolate_415</t>
+  </si>
+  <si>
+    <t>Isolate_328,Isolate_324,Isolate_325,Isolate_327,Isolate_563,Isolate_326,Isolate_562,Isolate_138</t>
+  </si>
+  <si>
+    <t>Isolate_302</t>
+  </si>
+  <si>
+    <t>Isolate_411,Isolate_412</t>
+  </si>
+  <si>
+    <t>Isolate_336,Isolate_335,Isolate_566,Isolate_334,Isolate_565</t>
+  </si>
+  <si>
+    <t>Isolate_382</t>
+  </si>
+  <si>
+    <t>Isolate_282,Isolate_536</t>
+  </si>
+  <si>
+    <t>Isolate_481</t>
+  </si>
+  <si>
+    <t>Isolate_439</t>
+  </si>
+  <si>
+    <t>Isolate_423</t>
+  </si>
+  <si>
+    <t>Isolate_499</t>
+  </si>
+  <si>
+    <t>Isolate_546,Isolate_538,Isolate_539,Isolate_540</t>
+  </si>
+  <si>
+    <t>Isolate_586,Isolate_584</t>
+  </si>
+  <si>
+    <t>Isolate_564,Isolate_589,Isolate_333</t>
+  </si>
+  <si>
+    <t>Isolate_640,Isolate_438,Isolate_81,Isolate_82</t>
+  </si>
+  <si>
+    <t>Isolate_585</t>
+  </si>
+  <si>
+    <t>Isolate_594</t>
+  </si>
+  <si>
+    <t>Isolate_622,Isolate_616</t>
+  </si>
+  <si>
+    <t>Isolate_304,Isolate_558</t>
+  </si>
+  <si>
+    <t>Isolate_358</t>
+  </si>
+  <si>
+    <t>Isolate_641</t>
+  </si>
+  <si>
+    <t>Isolate_590,Isolate_587</t>
+  </si>
+  <si>
+    <t>Isolate_409</t>
+  </si>
+  <si>
+    <t>Isolate_277,Isolate_281</t>
+  </si>
+  <si>
+    <t>Isolate_255</t>
+  </si>
+  <si>
+    <t>Isolate_256,Isolate_265</t>
+  </si>
+  <si>
+    <t>Isolate_530,Isolate_531,Isolate_40,Isolate_167</t>
+  </si>
+  <si>
+    <t>Isolate_407</t>
+  </si>
+  <si>
+    <t>Isolate_285</t>
+  </si>
+  <si>
+    <t>Isolate_309</t>
+  </si>
+  <si>
+    <t>Isolate_405</t>
+  </si>
+  <si>
+    <t>Isolate_284</t>
+  </si>
+  <si>
+    <t>Isolate_314</t>
+  </si>
+  <si>
+    <t>Isolate_592</t>
+  </si>
+  <si>
+    <t>Isolate_4</t>
+  </si>
+  <si>
+    <t>Isolate_9</t>
+  </si>
+  <si>
+    <t>Isolate_11</t>
+  </si>
+  <si>
+    <t>Isolate_14</t>
+  </si>
+  <si>
+    <t>Isolate_32</t>
+  </si>
+  <si>
+    <t>Isolate_34</t>
+  </si>
+  <si>
+    <t>Isolate_56</t>
+  </si>
+  <si>
+    <t>Isolate_168,Isolate_169,Isolate_170</t>
+  </si>
+  <si>
+    <t>Isolate_190,Isolate_211,Isolate_209,Isolate_219</t>
+  </si>
+  <si>
+    <t>Isolate_193,Isolate_233</t>
+  </si>
+  <si>
+    <t>Isolate_173</t>
+  </si>
+  <si>
+    <t>Isolate_230,Isolate_200,Isolate_226,Isolate_202</t>
+  </si>
+  <si>
+    <t>Isolate_231</t>
+  </si>
+  <si>
+    <t>Isolate_207</t>
+  </si>
+  <si>
+    <t>Isolate_67</t>
+  </si>
+  <si>
+    <t>Isolate_236</t>
+  </si>
+  <si>
+    <t>Isolate_234,Isolate_197</t>
+  </si>
+  <si>
+    <t>Isolate_208,Isolate_212</t>
+  </si>
+  <si>
+    <t>Isolate_216</t>
+  </si>
+  <si>
+    <t>Isolate_198</t>
+  </si>
+  <si>
+    <t>Isolate_140</t>
   </si>
   <si>
     <t>828</t>
@@ -2041,58 +2041,58 @@
     <t>1332</t>
   </si>
   <si>
-    <t>CI_1799,CI_2548,CI_2989,CI_2991,CI_4356,CI_4378,CI_4411,CI_4424,CI_4447,CI_0165,06_1483,06_1484,06_1486,06_1491,06_1493,06_1495,06_1496,06_1499,06_1501,06_1503,06_1504,06_1880,06_2876,06_3383,06_3384,06_4090,06_4096,06_4100,06_4634,06_4635,06_5789,06_6550,06_6551,06_6558,06_7865,07_0672,07_7326,08_0085,08_0087,08_0513,08_1708,08_1719,08_2959,08_2961,08_2963,08_2963_1,08_2963_2,08_2965,08_2965_1,08_2965_2,08_2973,08_2974,08_2975,08_2978,08_2979,08_2980,08_2981,08_2982,08_4694,08_5288,08_6517,CA99CN070028,CI_3943,CI_3986,CI_1845,CI_2423,CI_2510,CI_2605,CI_3252,CI_3812,CI_4079,CI_5034,CI_4102,CI_1875,CI_1884,CI_2533,CI_2536,CI_2695,CI_2950,CI_3036,CI_1660,CI_2230,CI_1653,CE_M_09_3081</t>
-  </si>
-  <si>
-    <t>CI_3074,06_1505,06_1506,CI_0699,CI_4990,CI_3043,CE_M_10_2108</t>
-  </si>
-  <si>
-    <t>CI_4353,CI_0987,CI_0136,06_1871,06_1876,06_2855,06_2864,06_2870,06_2874,06_2875,06_2879,06_3567,06_3568,06_3782,06_4010,06_4158,06_4731,06_4735,06_4912,06_5177,06_5340,06_5726,06_5919,06_6309,06_6561,06_7579,06_7630,06_7833,07_0376,07_0377,07_1304,07_2175,07_2681,07_3079,07_3695,07_5040,07_5133,07_5425,07_6217,07_6623,07_7328,07_7865,08_0016,08_0106,08_0107,08_0545,08_0938,08_1702,08_1721,08_2967,08_2968,08_4604,08_5175,08_6161,08_6207,08_6876,08_6977,08_7035,08_7036,08_7037,08_7834,08_7903,08_8040,08_8093,CA99CN070013,CA99CN070018,CA99CN070022,CA99CN070029,06_5790,06_7332,07_3238,07_5038,07_5041,07_5581,07_5583,07_6017,07_6066,07_6215,07_7331,08_1714,08_5603,08_5925,08_6208,08_7039,CI_0346,CI_0783,CI_1964,CI_1969,CI_5328,CI_5357,CI_5429,CI_5906,CI_5997,CI_0918,CI_4108,CI_5245,CI_5254,CI_5265,CI_5292,CI_5300,CE_M_09_2085,CE_M_09_4099,CE_M_10_4054,CE_M_10_4091,CE_R_10_0273,CE_R_11_0238,CE_R_11_0270,CE2_R_11_3021</t>
-  </si>
-  <si>
-    <t>CI_4360,06_4093</t>
-  </si>
-  <si>
-    <t>CI_4383,CI_4458,CI_0927,06_2171,06_2273,06_2873,06_7864,07_1935,07_5321,07_6424,06_4734,07_4268,07_4428,08_1700,CI_0292,CI_0334,CI_5692,CI_5889,CI_5943,CI_5947,CI_1874</t>
-  </si>
-  <si>
-    <t>CI_4395,CI_4428,06_1872,06_2403,06_4733,06_5339,07_0673,07_3855,07_4267,08_1704,08_7040,CA99CN070034,07_2174,CI_0325,CI_0450,CI_0453,CI_0458,CI_0532,CI_0697,CI_0765,CI_0955,CI_1096,CI_0973,CE_M_09_3054,CE_M_10_2096,CE_M_10_2113</t>
-  </si>
-  <si>
-    <t>CI_1636,08_2966</t>
-  </si>
-  <si>
-    <t>CI_0884,CI_0094,06_1494,06_2859,06_3351,06_4095,06_6552,06_7576,06_7581,06_7583,07_3321,07_3324,07_3509,07_4077,07_7321,07_7322,07_7323,08_0088,08_1680,08_2964,08_2969,08_2970,08_2971,CA99CN070038,06_3245,06_3569,06_7515,07_0971,07_1493,07_1875,CI_0405,CI_2864</t>
-  </si>
-  <si>
-    <t>CI_0893,CI_0898,06_3129,06_4732,06_4736,06_6768,07_1576,07_1577,07_7332,08_1710,06_3783,06_3849,06_3851,06_3852,06_6554,07_5039,08_1711,CI_1415,CI_3889</t>
-  </si>
-  <si>
-    <t>CI_0168,06_4250,06_4910,06_5961,06_6556,06_6740,07_0217,07_0920,08_1699,08_5808,CA99CN070020,CI_0182,CI_3290,CI_3299,CI_0392</t>
-  </si>
-  <si>
-    <t>06_1873,06_1874,06_2857,06_4013,06_4541_2,06_5723,06_7514,07_2022,07_6976,07_7325,08_0512,08_0546,08_0667,08_4602,08_5086,08_5177,08_6023,08_6315,08_7366,08_8094,07_2680,07_7324,CI_0677,CI_0685,CE_R_11_0170,CE2_R_11_3009,CE2_R2_11_2018,CE2_R2_11_3081,CE2_R2_11_3085</t>
-  </si>
-  <si>
-    <t>06_1875,06_2858,06_3781,06_4008,06_4098,06_5179,06_6767,07_1771,07_2731,07_6362,07_6899,07_7316,07_7317,07_7318,07_7327,07_7329,08_0093,08_0095,08_1705,08_1718,08_1720,08_1723,08_1727,08_4478,08_6022,08_6024,08_6209,08_7038,CA99CN070024,CA99CN070027,CA99CN070036,08_1709</t>
-  </si>
-  <si>
-    <t>06_1877,06_5725,07_1305,08_5179</t>
-  </si>
-  <si>
-    <t>06_1878,06_2856,06_2860,06_2862,06_2863,06_2865,06_2871_1,06_2871_2,06_2872,06_3352,06_3850,06_4009,06_4011,06_4091,06_4092,06_4097,06_4251,06_4540,06_5957,06_6453,06_6553,06_6557,06_6988,06_7585,06_7631,07_0220,07_3322,07_3461,07_3854,07_6898,07_7190,07_7313,07_7315,07_7319,07_7320,07_7786,08_0001,08_0083,08_0086,08_0089,08_0090,08_0091,08_0094,08_0097,08_0098,08_1701,08_1706,08_1707,08_1712,08_1713,08_1724,08_1725,08_1726,08_2640,08_4457,08_4459,08_4462,08_4463,08_4464,08_4465,08_4467,08_4469,08_4470,08_4471,08_4473,08_4475,08_4476,08_4477,08_4695,08_4698,08_4699,08_4700,08_4806,08_5178,08_5286,08_6878,08_7902,CA99CN070019,CA99CN070039,06_2866,06_4911,06_5176,06_6212,07_1009,07_3508,07_3647,07_3853,07_4076,07_7314,08_0096,08_0100,08_4456,08_4460,08_4461,08_4466,08_4468,08_4472,08_4474,08_4603,08_4696,08_4697,08_4913,08_5176,08_5490,08_6160,08_6877,08_7016,08_7017,CI_0322,CI_0609,CI_1915,CI_2840,CI_2439,CI_3643,CI_3879,CI_4071,CI_4806,CI_4835,CI_4864,CI_4909,CI_5198,CI_1092,CI_1117,CI_1943,CI_2499,CI_0637,CI_1109,CI_1920,CI_2055,CI_2061,CE_M_10_3062,CE_R_10_0305,CE_R_10_0306,CE_R_11_0077,CE_R_11_0100,CE_R_11_0114,CE_R_11_0178,CE_R_11_0192,CE_R_11_0240,CE_R_11_0251,CE_R2_11_0134,CE_R2_11_0374,CE2_R_11_3039,CE2_R_11_3113,CE2_R_11_3131,CE2_R2_11_1006,CE2_R2_11_1009,CE2_R2_11_1027,CE2_R2_11_1033,CE2_R2_11_2022,CE2_R2_11_3023</t>
-  </si>
-  <si>
-    <t>06_2272,06_7513,07_0218,CA99CN070015,06_7331,06_7656</t>
-  </si>
-  <si>
-    <t>06_2869,06_5791,07_5841,08_1703</t>
-  </si>
-  <si>
-    <t>06_4094,06_6555,06_7739,08_6879</t>
-  </si>
-  <si>
-    <t>07_1303,07_1575,07_5839,08_0084,08_1716,08_4455,08_6314,CA99CN070023</t>
+    <t>Isolate_199,Isolate_210,Isolate_217,Isolate_218,Isolate_144,Isolate_146,Isolate_149,Isolate_150,Isolate_152,Isolate_112,Isolate_258,Isolate_274,Isolate_271,Isolate_272,Isolate_273,Isolate_267,Isolate_276,Isolate_269,Isolate_270,Isolate_266,Isolate_275,Isolate_413,Isolate_595,Isolate_410,Isolate_416,Isolate_600,Isolate_588,Isolate_599,Isolate_406,Isolate_401,Isolate_414,Isolate_508,Isolate_515,Isolate_415,Isolate_411,Isolate_404,Isolate_586,Isolate_585,Isolate_594,Isolate_412,Isolate_590,Isolate_587,Isolate_277,Isolate_255,Isolate_533,Isolate_509,Isolate_518,Isolate_532,Isolate_507,Isolate_505,Isolate_281,Isolate_534,Isolate_535,Isolate_516,Isolate_514,Isolate_511,Isolate_512,Isolate_513,Isolate_407,Isolate_402,Isolate_381,Isolate_584,Isolate_230,Isolate_231,Isolate_200,Isolate_204,Isolate_207,Isolate_211,Isolate_222,Isolate_226,Isolate_233,Isolate_236,Isolate_234,Isolate_129,Isolate_130,Isolate_208,Isolate_209,Isolate_212,Isolate_216,Isolate_219,Isolate_198,Isolate_202,Isolate_197,Isolate_135</t>
+  </si>
+  <si>
+    <t>Isolate_221,Isolate_250,Isolate_251,Isolate_194,Isolate_67,Isolate_220,Isolate_140</t>
+  </si>
+  <si>
+    <t>Isolate_143,Isolate_125,Isolate_111,Isolate_360,Isolate_377,Isolate_583,Isolate_603,Isolate_577,Isolate_581,Isolate_575,Isolate_574,Isolate_385,Isolate_386,Isolate_359,Isolate_391,Isolate_373,Isolate_420,Isolate_487,Isolate_387,Isolate_366,Isolate_383,Isolate_378,Isolate_361,Isolate_350,Isolate_371,Isolate_506,Isolate_362,Isolate_356,Isolate_351,Isolate_352,Isolate_376,Isolate_353,Isolate_382,Isolate_379,Isolate_367,Isolate_394,Isolate_372,Isolate_368,Isolate_392,Isolate_500,Isolate_576,Isolate_390,Isolate_369,Isolate_380,Isolate_357,Isolate_304,Isolate_358,Isolate_580,Isolate_582,Isolate_530,Isolate_531,Isolate_363,Isolate_389,Isolate_388,Isolate_364,Isolate_501,Isolate_502,Isolate_355,Isolate_395,Isolate_393,Isolate_375,Isolate_365,Isolate_370,Isolate_354,Isolate_503,Isolate_558,Isolate_578,Isolate_579,Isolate_10,Isolate_13,Isolate_25,Isolate_33,Isolate_35,Isolate_36,Isolate_37,Isolate_38,Isolate_39,Isolate_40,Isolate_72,Isolate_79,Isolate_54,Isolate_55,Isolate_57,Isolate_61,Isolate_167,Isolate_118,Isolate_178,Isolate_179,Isolate_159,Isolate_160,Isolate_161,Isolate_164,Isolate_68,Isolate_123,Isolate_142,Isolate_154,Isolate_155,Isolate_156,Isolate_157,Isolate_158,Isolate_136,Isolate_184,Isolate_185,Isolate_186,Isolate_80,Isolate_106,Isolate_110,Isolate_84</t>
+  </si>
+  <si>
+    <t>Isolate_145,Isolate_612</t>
+  </si>
+  <si>
+    <t>Isolate_147,Isolate_153,Isolate_122,Isolate_422,Isolate_419,Isolate_602,Isolate_418,Isolate_417,Isolate_421,Isolate_496,Isolate_7,Isolate_30,Isolate_32,Isolate_76,Isolate_188,Isolate_117,Isolate_162,Isolate_163,Isolate_165,Isolate_166,Isolate_128</t>
+  </si>
+  <si>
+    <t>Isolate_148,Isolate_151,Isolate_299,Isolate_298,Isolate_374,Isolate_300,Isolate_294,Isolate_296,Isolate_297,Isolate_554,Isolate_301,Isolate_555,Isolate_23,Isolate_116,Isolate_168,Isolate_169,Isolate_170,Isolate_190,Isolate_193,Isolate_173,Isolate_174,Isolate_126,Isolate_124,Isolate_134,Isolate_139,Isolate_141</t>
+  </si>
+  <si>
+    <t>Isolate_196,Isolate_280</t>
+  </si>
+  <si>
+    <t>Isolate_119,Isolate_187,Isolate_278,Isolate_606,Isolate_426,Isolate_609,Isolate_519,Isolate_520,Isolate_517,Isolate_521,Isolate_425,Isolate_444,Isolate_439,Isolate_423,Isolate_607,Isolate_610,Isolate_608,Isolate_604,Isolate_424,Isolate_510,Isolate_527,Isolate_528,Isolate_529,Isolate_605,Isolate_1,Isolate_2,Isolate_15,Isolate_19,Isolate_21,Isolate_22,Isolate_62,Isolate_215</t>
+  </si>
+  <si>
+    <t>Isolate_120,Isolate_121,Isolate_490,Isolate_492,Isolate_384,Isolate_491,Isolate_488,Isolate_489,Isolate_653,Isolate_654,Isolate_4,Isolate_3,Isolate_5,Isolate_6,Isolate_131,Isolate_34,Isolate_78,Isolate_195,Isolate_229</t>
+  </si>
+  <si>
+    <t>Isolate_113,Isolate_471,Isolate_472,Isolate_524,Isolate_525,Isolate_474,Isolate_476,Isolate_473,Isolate_643,Isolate_475,Isolate_642,Isolate_114,Isolate_132,Isolate_133,Isolate_189</t>
+  </si>
+  <si>
+    <t>Isolate_318,Isolate_313,Isolate_559,Isolate_312,Isolate_323,Isolate_320,Isolate_408,Isolate_321,Isolate_310,Isolate_560,Isolate_306,Isolate_308,Isolate_322,Isolate_315,Isolate_316,Isolate_317,Isolate_307,Isolate_405,Isolate_314,Isolate_311,Isolate_24,Isolate_71,Isolate_171,Isolate_172,Isolate_95,Isolate_83,Isolate_93,Isolate_99,Isolate_100</t>
+  </si>
+  <si>
+    <t>Isolate_287,Isolate_545,Isolate_291,Isolate_286,Isolate_552,Isolate_292,Isolate_343,Isolate_288,Isolate_341,Isolate_499,Isolate_289,Isolate_546,Isolate_538,Isolate_539,Isolate_544,Isolate_541,Isolate_542,Isolate_537,Isolate_548,Isolate_543,Isolate_540,Isolate_551,Isolate_650,Isolate_283,Isolate_285,Isolate_337,Isolate_293,Isolate_284,Isolate_553,Isolate_547,Isolate_550,Isolate_77</t>
+  </si>
+  <si>
+    <t>Isolate_331,Isolate_330,Isolate_332,Isolate_329</t>
+  </si>
+  <si>
+    <t>Isolate_470,Isolate_647,Isolate_652,Isolate_631,Isolate_623,Isolate_649,Isolate_627,Isolate_601,Isolate_628,Isolate_450,Isolate_468,Isolate_449,Isolate_467,Isolate_644,Isolate_645,Isolate_632,Isolate_479,Isolate_484,Isolate_252,Isolate_441,Isolate_526,Isolate_522,Isolate_483,Isolate_523,Isolate_478,Isolate_486,Isolate_451,Isolate_481,Isolate_448,Isolate_494,Isolate_485,Isolate_625,Isolate_624,Isolate_620,Isolate_626,Isolate_452,Isolate_477,Isolate_640,Isolate_639,Isolate_646,Isolate_622,Isolate_616,Isolate_633,Isolate_619,Isolate_634,Isolate_635,Isolate_641,Isolate_621,Isolate_638,Isolate_636,Isolate_637,Isolate_629,Isolate_648,Isolate_447,Isolate_480,Isolate_436,Isolate_455,Isolate_456,Isolate_453,Isolate_457,Isolate_458,Isolate_459,Isolate_460,Isolate_437,Isolate_461,Isolate_462,Isolate_463,Isolate_464,Isolate_445,Isolate_465,Isolate_454,Isolate_466,Isolate_469,Isolate_482,Isolate_446,Isolate_493,Isolate_438,Isolate_630,Isolate_651,Isolate_69,Isolate_8,Isolate_9,Isolate_12,Isolate_20,Isolate_26,Isolate_27,Isolate_28,Isolate_29,Isolate_70,Isolate_73,Isolate_75,Isolate_41,Isolate_42,Isolate_43,Isolate_44,Isolate_45,Isolate_46,Isolate_47,Isolate_48,Isolate_49,Isolate_50,Isolate_51,Isolate_52,Isolate_53,Isolate_56,Isolate_58,Isolate_59,Isolate_60,Isolate_115,Isolate_191,Isolate_201,Isolate_214,Isolate_205,Isolate_225,Isolate_228,Isolate_232,Isolate_235,Isolate_64,Isolate_66,Isolate_65,Isolate_237,Isolate_175,Isolate_176,Isolate_63,Isolate_206,Isolate_192,Isolate_127,Isolate_177,Isolate_182,Isolate_183,Isolate_137,Isolate_81,Isolate_82,Isolate_88,Isolate_90,Isolate_91,Isolate_96,Isolate_97,Isolate_107,Isolate_109,Isolate_86,Isolate_104,Isolate_85,Isolate_98,Isolate_108,Isolate_89,Isolate_92,Isolate_101,Isolate_102,Isolate_94,Isolate_87</t>
+  </si>
+  <si>
+    <t>Isolate_319,Isolate_305,Isolate_303,Isolate_557,Isolate_14,Isolate_16</t>
+  </si>
+  <si>
+    <t>Isolate_568,Isolate_338,Isolate_342,Isolate_567</t>
+  </si>
+  <si>
+    <t>Isolate_556,Isolate_504,Isolate_302,Isolate_498</t>
+  </si>
+  <si>
+    <t>Isolate_290,Isolate_336,Isolate_335,Isolate_597,Isolate_566,Isolate_334,Isolate_309,Isolate_565</t>
   </si>
 </sst>
 </file>
